--- a/Autodidacte/商务英语/国际商务英语202010月.xlsx
+++ b/Autodidacte/商务英语/国际商务英语202010月.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\自考\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\rube-test\Autodidacte\商务英语\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="单词1" sheetId="5" r:id="rId1"/>
@@ -17445,6 +17445,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17459,15 +17468,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17790,7 +17790,7 @@
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
@@ -24513,10 +24513,10 @@
       </c>
     </row>
     <row r="497" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="63" t="s">
+      <c r="A497" s="66" t="s">
         <v>1968</v>
       </c>
-      <c r="B497" s="63"/>
+      <c r="B497" s="66"/>
     </row>
     <row r="498" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
@@ -24610,7 +24610,7 @@
       <c r="A509" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="B509" s="64" t="s">
+      <c r="B509" s="67" t="s">
         <v>1345</v>
       </c>
     </row>
@@ -24618,25 +24618,25 @@
       <c r="A510" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="B510" s="64"/>
+      <c r="B510" s="67"/>
     </row>
     <row r="511" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="B511" s="64"/>
+      <c r="B511" s="67"/>
     </row>
     <row r="512" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="B512" s="64"/>
+      <c r="B512" s="67"/>
     </row>
     <row r="513" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B513" s="64" t="s">
+      <c r="B513" s="67" t="s">
         <v>793</v>
       </c>
     </row>
@@ -24644,13 +24644,13 @@
       <c r="A514" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="B514" s="64"/>
+      <c r="B514" s="67"/>
     </row>
     <row r="515" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="B515" s="64"/>
+      <c r="B515" s="67"/>
     </row>
     <row r="516" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
@@ -25100,7 +25100,7 @@
   <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
@@ -28221,10 +28221,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="63" t="s">
         <v>1320</v>
       </c>
-      <c r="B28" s="61"/>
+      <c r="B28" s="64"/>
     </row>
     <row r="29" spans="1:2" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
@@ -28326,7 +28326,7 @@
       <c r="A41" s="29" t="s">
         <v>870</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="65" t="s">
         <v>1345</v>
       </c>
     </row>
@@ -28334,25 +28334,25 @@
       <c r="A42" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="B42" s="62"/>
+      <c r="B42" s="65"/>
     </row>
     <row r="43" spans="1:2" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>1346</v>
       </c>
-      <c r="B43" s="62"/>
+      <c r="B43" s="65"/>
     </row>
     <row r="44" spans="1:2" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>1347</v>
       </c>
-      <c r="B44" s="62"/>
+      <c r="B44" s="65"/>
     </row>
     <row r="45" spans="1:2" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="65" t="s">
         <v>793</v>
       </c>
     </row>
@@ -28360,13 +28360,13 @@
       <c r="A46" s="29" t="s">
         <v>1348</v>
       </c>
-      <c r="B46" s="62"/>
+      <c r="B46" s="65"/>
     </row>
     <row r="47" spans="1:2" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>1349</v>
       </c>
-      <c r="B47" s="62"/>
+      <c r="B47" s="65"/>
     </row>
     <row r="48" spans="1:2" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
@@ -28675,8 +28675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
@@ -29714,19 +29714,19 @@
       </c>
     </row>
     <row r="62" spans="1:5" s="57" customFormat="1" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="60" t="s">
         <v>2718</v>
       </c>
       <c r="B62" s="57" t="s">
         <v>739</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="60" t="s">
         <v>2430</v>
       </c>
-      <c r="D62" s="66" t="s">
+      <c r="D62" s="61" t="s">
         <v>1523</v>
       </c>
-      <c r="E62" s="65" t="s">
+      <c r="E62" s="60" t="s">
         <v>2429</v>
       </c>
     </row>
@@ -30380,7 +30380,7 @@
       <c r="C101" s="58" t="s">
         <v>2483</v>
       </c>
-      <c r="D101" s="67" t="s">
+      <c r="D101" s="62" t="s">
         <v>1599</v>
       </c>
       <c r="E101" s="59" t="s">
@@ -32601,10 +32601,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -32636,15 +32636,36 @@
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -32659,13 +32680,13 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -32680,13 +32701,13 @@
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -32701,13 +32722,13 @@
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -32722,13 +32743,13 @@
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -32743,13 +32764,13 @@
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -32764,13 +32785,13 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -32785,13 +32806,13 @@
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -32806,13 +32827,13 @@
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -32827,13 +32848,13 @@
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -32848,13 +32869,13 @@
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -32868,292 +32889,271 @@
       <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="A14" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>350</v>
+      <c r="A17" s="38" t="s">
+        <v>2610</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>2609</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
-        <v>2610</v>
+        <v>2617</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>2617</v>
+      <c r="A19" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>2611</v>
+        <v>441</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>2616</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>2616</v>
+        <v>488</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>2615</v>
+        <v>509</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="46.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="46.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="61.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>538</v>
+        <v>731</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="61.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>731</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>2614</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>2612</v>
+      </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>2613</v>
+      <c r="A33" s="2" t="s">
+        <v>975</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>975</v>
+        <v>351</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>2618</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>351</v>
+        <v>488</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>2618</v>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1076</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B36" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" s="16" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" s="16" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>1271</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B36" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+    <row r="37" spans="1:3" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
         <v>1272</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B37" s="51" t="s">
         <v>1273</v>
       </c>
+      <c r="C37" s="17"/>
+    </row>
+    <row r="38" spans="1:3" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>1355</v>
+      </c>
       <c r="C38" s="17"/>
-    </row>
-    <row r="39" spans="1:3" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B39" s="54" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C39" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -33165,7 +33165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
